--- a/publipostage/05f82e368/liste_essais_cliniques_identifies_05f82e368.xlsx
+++ b/publipostage/05f82e368/liste_essais_cliniques_identifies_05f82e368.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,40 +441,45 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>status_label</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>NCTId</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>eudraCT</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>completion_year</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>clinical_trial_title</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>acronym</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>results_1y</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>results_3y</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>results</t>
         </is>
@@ -488,32 +493,37 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>NCT00568165</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr">
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Value of a Mobile Team of Cardiologist Using Echocardiography for Managing Patients With Acute Heart Failure</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>EMEPIC</t>
         </is>
       </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
       <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -525,32 +535,37 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>NCT02012829</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Brief Intervention to Improve Colorectal Cancer Screening</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Hem-FMG</t>
         </is>
       </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
       <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -562,32 +577,37 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>NCT02156869</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Impact of a Printed Decision Aid on Patients' Intent to Undertake Prostate Cancer Screening: a Multicenter Pragmatic Randomized Controlled Trial</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>PSAMG</t>
         </is>
       </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
       <c r="H4" t="b">
         <v>0</v>
       </c>
       <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="b">
         <v>0</v>
       </c>
     </row>
@@ -599,32 +619,37 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>NCT02122432</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Impact of Teledermatology Versus Usual Care on Delay Before Diagnosis and/or Treatment of Dermatologic Conditions in General Practice</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>TELEDERMATO</t>
         </is>
       </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
       <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="b">
         <v>1</v>
       </c>
-      <c r="I5" t="b">
+      <c r="J5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -636,28 +661,33 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>NCT02237573</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr">
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Impact of Handing to Patients With Viral Gastroenteritis or Upper Respiratory Tract Infections a Copy of the Consultation Report on Their Medicine Consumption: a Randomized Controlled Trial</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="b">
         <v>0</v>
       </c>
       <c r="I6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -669,32 +699,37 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>NCT04606953</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr">
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Working Memory Training With Attention Process Training (APT-II) in Older Adults With Mild Cognitive Impairment : Impacts on Cognition and Ecological Activities</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>APT-II</t>
         </is>
       </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
       <c r="I7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" t="b">
         <v>0</v>
       </c>
     </row>

--- a/publipostage/05f82e368/liste_essais_cliniques_identifies_05f82e368.xlsx
+++ b/publipostage/05f82e368/liste_essais_cliniques_identifies_05f82e368.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,11 @@
           <t>results</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>intervention_type</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -526,6 +531,11 @@
       <c r="J2" t="b">
         <v>0</v>
       </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -568,6 +578,11 @@
       <c r="J3" t="b">
         <v>0</v>
       </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -610,6 +625,11 @@
       <c r="J4" t="b">
         <v>0</v>
       </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -652,6 +672,11 @@
       <c r="J5" t="b">
         <v>1</v>
       </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -690,6 +715,11 @@
       <c r="J6" t="b">
         <v>0</v>
       </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -731,6 +761,11 @@
       </c>
       <c r="J7" t="b">
         <v>0</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
       </c>
     </row>
   </sheetData>
